--- a/families/tache/xlsx/tache_data_cleaned.xlsx
+++ b/families/tache/xlsx/tache_data_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\personal\family_trees\families\tache\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466580F1-6368-4DDA-A575-EF6CAF21F209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1962FE-110F-4154-B673-788FBBADE86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DEF51C01-CDE7-42C1-BC59-C10EB9DF8DD9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1404">
   <si>
     <t>Given Name</t>
   </si>
@@ -4314,6 +4314,9 @@
   </si>
   <si>
     <t>Matyas Eagan</t>
+  </si>
+  <si>
+    <t>Louise Marie</t>
   </si>
 </sst>
 </file>
@@ -4916,7 +4919,7 @@
   <dimension ref="A1:AA414"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A354" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E371" sqref="E371"/>
+      <selection activeCell="D375" sqref="D375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17917,7 +17920,7 @@
         <v>1144</v>
       </c>
       <c r="D375" t="s">
-        <v>268</v>
+        <v>1403</v>
       </c>
       <c r="E375" t="s">
         <v>3</v>
